--- a/wdc_libs/wdc-xlsx-converter/template.xlsx
+++ b/wdc_libs/wdc-xlsx-converter/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="15120" windowHeight="7830" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="15120" windowHeight="7830" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>key</t>
   </si>
@@ -59,15 +59,9 @@
     <t>dataset.commit.note</t>
   </si>
   <si>
-    <t>dataset.commit.date</t>
-  </si>
-  <si>
     <t>Add commit info</t>
   </si>
   <si>
-    <t>dataset.commit.status</t>
-  </si>
-  <si>
     <t>dataset.visibility</t>
   </si>
   <si>
@@ -141,15 +135,24 @@
   </si>
   <si>
     <t>value.ua</t>
+  </si>
+  <si>
+    <t>aaaaa</t>
+  </si>
+  <si>
+    <t>dataset.commit.createdAt</t>
+  </si>
+  <si>
+    <t>dataset.commit.HEAD</t>
+  </si>
+  <si>
+    <t>HEAD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -245,7 +248,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -551,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,10 +583,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -596,31 +599,36 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="B7" s="12">
-        <v>42348</v>
+        <f ca="1">TODAY()</f>
+        <v>42333</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="8"/>
+        <v>40</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
@@ -632,18 +640,18 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -651,7 +659,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -659,7 +667,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -667,7 +675,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -675,7 +683,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -717,7 +725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -733,76 +741,76 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -812,10 +820,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -828,7 +836,22 @@
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="38.28515625" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>